--- a/bioSample/bioSample_J.PLAGGENBERG_12.18.19.xlsx
+++ b/bioSample/bioSample_J.PLAGGENBERG_12.18.19.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">biosampleNumber</t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">experimentDesign</t>
@@ -117,6 +117,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="0"/>
@@ -135,12 +141,6 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -194,19 +194,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -215,10 +219,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -246,7 +246,7 @@
   <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J28" activeCellId="0" sqref="J28"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -254,14 +254,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -307,30 +307,30 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="J2" s="7" t="s">
+      <c r="I2" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="8" t="n">
@@ -367,13 +367,13 @@
       <c r="D3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="6" t="n">
+      <c r="I3" s="7" t="n">
         <v>30</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -399,16 +399,16 @@
       <c r="D4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="I4" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K4" s="1" t="n">
@@ -425,19 +425,19 @@
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="4" t="n">
         <v>4</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="6" t="n">
+      <c r="I5" s="7" t="n">
         <v>30</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -463,16 +463,16 @@
       <c r="D6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="I6" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K6" s="1" t="n">
@@ -495,13 +495,13 @@
       <c r="D7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="6" t="n">
+      <c r="I7" s="7" t="n">
         <v>30</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -521,22 +521,22 @@
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="4" t="n">
         <v>7</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="I8" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="1" t="n">
@@ -559,13 +559,13 @@
       <c r="D9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="I9" s="7" t="n">
         <v>30</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -591,16 +591,16 @@
       <c r="D10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="I10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K10" s="1" t="n">
@@ -617,19 +617,19 @@
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="4" t="n">
         <v>10</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="6" t="n">
+      <c r="I11" s="7" t="n">
         <v>30</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -655,16 +655,16 @@
       <c r="D12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="I12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K12" s="1" t="n">
@@ -687,13 +687,13 @@
       <c r="D13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="6" t="n">
+      <c r="I13" s="7" t="n">
         <v>30</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -713,22 +713,22 @@
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="3" t="n">
+      <c r="C14" s="4" t="n">
         <v>13</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="I14" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="1" t="n">
@@ -751,13 +751,13 @@
       <c r="D15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="6" t="n">
+      <c r="I15" s="7" t="n">
         <v>30</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -783,16 +783,16 @@
       <c r="D16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="I16" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K16" s="8" t="n">
@@ -809,22 +809,22 @@
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="3" t="n">
+      <c r="C17" s="4" t="n">
         <v>16</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="J17" s="2" t="s">
+      <c r="I17" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K17" s="1" t="n">
@@ -847,16 +847,16 @@
       <c r="D18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="I18" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K18" s="1" t="n">
@@ -879,13 +879,13 @@
       <c r="D19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="6" t="n">
+      <c r="I19" s="7" t="n">
         <v>30</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -905,22 +905,22 @@
       <c r="B20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="3" t="n">
+      <c r="C20" s="4" t="n">
         <v>19</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="I20" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K20" s="1" t="n">
@@ -943,13 +943,13 @@
       <c r="D21" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="6" t="n">
+      <c r="I21" s="7" t="n">
         <v>30</v>
       </c>
       <c r="J21" s="1" t="s">
@@ -975,16 +975,16 @@
       <c r="D22" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="I22" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K22" s="1" t="n">
@@ -1001,19 +1001,19 @@
       <c r="B23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="3" t="n">
+      <c r="C23" s="4" t="n">
         <v>22</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="6" t="n">
+      <c r="I23" s="7" t="n">
         <v>30</v>
       </c>
       <c r="J23" s="1" t="s">
@@ -1039,16 +1039,16 @@
       <c r="D24" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I24" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="I24" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K24" s="1" t="n">
@@ -1071,13 +1071,13 @@
       <c r="D25" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I25" s="6" t="n">
+      <c r="I25" s="7" t="n">
         <v>30</v>
       </c>
       <c r="J25" s="1" t="s">
@@ -1097,22 +1097,22 @@
       <c r="B26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="3" t="n">
+      <c r="C26" s="4" t="n">
         <v>25</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I26" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="I26" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K26" s="1" t="n">
@@ -1135,13 +1135,13 @@
       <c r="D27" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I27" s="6" t="n">
+      <c r="I27" s="7" t="n">
         <v>30</v>
       </c>
       <c r="J27" s="1" t="s">
@@ -1167,16 +1167,16 @@
       <c r="D28" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="I28" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K28" s="1" t="n">
@@ -1193,19 +1193,19 @@
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="3" t="n">
+      <c r="C29" s="4" t="n">
         <v>28</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I29" s="6" t="n">
+      <c r="I29" s="7" t="n">
         <v>30</v>
       </c>
       <c r="J29" s="1" t="s">
